--- a/biology/Médecine/Franck_Zal/Franck_Zal.xlsx
+++ b/biology/Médecine/Franck_Zal/Franck_Zal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Franck Zal, né le 22 décembre 1966 dans le 15e arrondissement de Paris, est un scientifique français et docteur en biologie marine. Il a d'abord travaillé dans le domaine des pigments respiratoires des invertébrés marins colonisant des milieux extrêmes (sources hydrothermales[1] profondes et zones intertidales) avant de se spécialiser dans le domaine de l’hémoglobine extracellulaire de l'annélide polychéte Arenicola marina[2] et son transport d’oxygène. Ses travaux lui ont valu la médaille de bronze du CNRS[3] en 2001.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franck Zal, né le 22 décembre 1966 dans le 15e arrondissement de Paris, est un scientifique français et docteur en biologie marine. Il a d'abord travaillé dans le domaine des pigments respiratoires des invertébrés marins colonisant des milieux extrêmes (sources hydrothermales profondes et zones intertidales) avant de se spécialiser dans le domaine de l’hémoglobine extracellulaire de l'annélide polychéte Arenicola marina et son transport d’oxygène. Ses travaux lui ont valu la médaille de bronze du CNRS en 2001.
 En 2007, il décide de quitter le CNRS et il fonde Hemarina, un laboratoire biopharmaceutique spécialisé dans le développement de produits de santé reposant sur les propriétés de l’hémoglobine extracellulaire du ver marin arénicole.
-Il a été adhérent et président durant plusieurs années de Bretagne Biosciences[4], président de Biotech Santé Bretagne[5] et vice-président de Antlanpôle Biothérapie[6].
-Il est élu « Breton de l'année » aux victoires de la Bretagne 2018 et son entreprise Hemarina est élue entreprise innovante[7].
+Il a été adhérent et président durant plusieurs années de Bretagne Biosciences, président de Biotech Santé Bretagne et vice-président de Antlanpôle Biothérapie.
+Il est élu « Breton de l'année » aux victoires de la Bretagne 2018 et son entreprise Hemarina est élue entreprise innovante.
 </t>
         </is>
       </c>
@@ -516,12 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études
-Franck Zal a obtenu son doctorat en 1996 auprès de l’université de Paris VI pour ses travaux sur les relations structure-fonction des hémoglobines extracellulaires des annélides. Il a ensuite continué son travail pendant trois ans de post-doctorat, d’abord à l’université de Santa Barbara en Californie (UCSB) pendant deux ans, puis pendant un an à l’université d’Anvers en Belgique[8]. En 2001, il obtient son Habilitation à Diriger des Recherches (Paris VI) et en 2014 un MBA de l'École Supérieure de Commerce de Rennes.
-Carrière scientifique
-Docteur et chercheur en biologie marine, Franck Zal a étudié pendant quinze ans les pigments respiratoires des invertébrés colonisant des milieux extrêmes avant de se spécialiser dans le domaine de l’hémoglobine extracellulaire des invertébrés marins et leur transport d’oxygène. Il a travaillé au CNRS, à la Station biologique de Roscoff (université Paris-VI). Il est l'auteur ou co-auteur d'une centaine d'articles scientifiques[9] et a effectué plusieurs centaines de conférences scientifiques et communications. 
-Entreprise Hemarina
-Franck Zal crée à Morlaix (Bretagne, Finistère) sa société de biotechnologie, Hemarina, en 2007[10].
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franck Zal a obtenu son doctorat en 1996 auprès de l’université de Paris VI pour ses travaux sur les relations structure-fonction des hémoglobines extracellulaires des annélides. Il a ensuite continué son travail pendant trois ans de post-doctorat, d’abord à l’université de Santa Barbara en Californie (UCSB) pendant deux ans, puis pendant un an à l’université d’Anvers en Belgique. En 2001, il obtient son Habilitation à Diriger des Recherches (Paris VI) et en 2014 un MBA de l'École Supérieure de Commerce de Rennes.
 </t>
         </is>
       </c>
@@ -547,10 +560,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière scientifique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Docteur et chercheur en biologie marine, Franck Zal a étudié pendant quinze ans les pigments respiratoires des invertébrés colonisant des milieux extrêmes avant de se spécialiser dans le domaine de l’hémoglobine extracellulaire des invertébrés marins et leur transport d’oxygène. Il a travaillé au CNRS, à la Station biologique de Roscoff (université Paris-VI). Il est l'auteur ou co-auteur d'une centaine d'articles scientifiques et a effectué plusieurs centaines de conférences scientifiques et communications. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Franck_Zal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franck_Zal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Entreprise Hemarina</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franck Zal crée à Morlaix (Bretagne, Finistère) sa société de biotechnologie, Hemarina, en 2007.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Franck_Zal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franck_Zal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions[réf. nécessaire]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2023 : prix Galien ;
 2020 : chevalier de l'Ordre National du Mérite Maritime ;
